--- a/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS013-G4.xlsx
+++ b/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS013-G4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="20115" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="20115" windowHeight="7485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="75">
   <si>
     <t>Escenario ID</t>
   </si>
@@ -66,27 +66,6 @@
     <t>TC2 - WWW</t>
   </si>
   <si>
-    <t>Búsqueda de Activo</t>
-  </si>
-  <si>
-    <t>Validar campos obligatorios</t>
-  </si>
-  <si>
-    <t>Modificar Activo</t>
-  </si>
-  <si>
-    <t>Cancelar confirmación</t>
-  </si>
-  <si>
-    <t>Eliminar Activo</t>
-  </si>
-  <si>
-    <t>Cancelar Eliminación</t>
-  </si>
-  <si>
-    <t>Limpiar búsqueda</t>
-  </si>
-  <si>
     <t>SC1 - 1</t>
   </si>
   <si>
@@ -238,13 +217,37 @@
   </si>
   <si>
     <t>Carlos Zelabueno</t>
+  </si>
+  <si>
+    <t>SC1 - Actualización Satisfactoria de Activo</t>
+  </si>
+  <si>
+    <t>Flujo Alterno 1</t>
+  </si>
+  <si>
+    <t>Flujo Alterno 2</t>
+  </si>
+  <si>
+    <t>Flujo Alterno 3</t>
+  </si>
+  <si>
+    <t>SC3 - Actualización de Activo Cancelada</t>
+  </si>
+  <si>
+    <t>SC4 - Eliminación del Activo cancelada</t>
+  </si>
+  <si>
+    <t>SC2 - Actualización de campos incompletos</t>
+  </si>
+  <si>
+    <t>TC1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,7 +269,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -287,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -321,11 +331,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,23 +380,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,128 +708,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="40.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -788,14 +812,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="57" bestFit="1" customWidth="1"/>
   </cols>
@@ -808,45 +832,45 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>74</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -879,21 +903,21 @@
         <v>5</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>74</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
@@ -920,12 +944,15 @@
         <v>5</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -957,14 +984,17 @@
       <c r="L4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="M4" s="4" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -990,18 +1020,21 @@
         <v>4</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>28</v>
+      <c r="M5" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -1033,13 +1066,16 @@
       <c r="L6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>27</v>
+      <c r="M6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -1071,21 +1107,24 @@
       <c r="L7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>29</v>
+      <c r="M7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1109,8 +1148,8 @@
       <c r="L8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>44</v>
+      <c r="M8" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1122,7 +1161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -1152,34 +1191,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>3</v>
@@ -1192,17 +1231,17 @@
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>23</v>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>5</v>
@@ -1226,7 +1265,7 @@
         <v>5</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1236,17 +1275,17 @@
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>24</v>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>5</v>
@@ -1270,7 +1309,7 @@
         <v>5</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1280,41 +1319,41 @@
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>25</v>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L4" s="2">
         <v>1000</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1324,41 +1363,41 @@
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>26</v>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>66</v>
+        <v>50</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1368,73 +1407,73 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>28</v>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="8" t="s">
-        <v>42</v>
+      <c r="N6" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L7" s="2">
         <v>1000</v>
@@ -1442,40 +1481,40 @@
       <c r="M7" s="2">
         <v>0</v>
       </c>
-      <c r="N7" s="8" t="s">
-        <v>43</v>
+      <c r="N7" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>70</v>
+      <c r="E8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L8" s="2">
         <v>250</v>
@@ -1483,8 +1522,8 @@
       <c r="M8" s="2">
         <v>0</v>
       </c>
-      <c r="N8" s="8" t="s">
-        <v>44</v>
+      <c r="N8" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS013-G4.xlsx
+++ b/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS013-G4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="20115" windowHeight="7485" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -234,8 +234,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,26 +245,24 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,7 +271,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC4BD97"/>
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,6 +366,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -371,28 +384,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -466,7 +468,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -501,7 +502,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -677,14 +677,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
@@ -695,33 +695,33 @@
     <col min="7" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="21" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="21" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
@@ -731,11 +731,11 @@
       <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="21" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -748,10 +748,10 @@
       <c r="D4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="21" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -767,26 +767,27 @@
       <c r="E5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83.85546875" bestFit="1" customWidth="1"/>
@@ -795,7 +796,7 @@
     <col min="15" max="15" width="29.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -842,11 +843,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -889,11 +890,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -936,11 +937,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -970,7 +971,7 @@
       <c r="K4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -983,11 +984,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1017,10 +1018,10 @@
       <c r="K5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="10" t="s">
+      <c r="L5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -1030,11 +1031,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1077,11 +1078,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1124,11 +1125,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1171,11 +1172,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1218,11 +1219,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1265,11 +1266,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1312,11 +1313,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1359,38 +1360,38 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="10" t="s">
+      <c r="I13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L13" s="2" t="s">
@@ -1402,24 +1403,25 @@
       <c r="N13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="O13" s="7" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="J1" sqref="J1:J65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -1435,7 +1437,7 @@
     <col min="16" max="16" width="29.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1485,14 +1487,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1535,14 +1537,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1585,14 +1587,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1622,7 +1624,7 @@
       <c r="L4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -1635,14 +1637,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1672,10 +1674,10 @@
       <c r="L5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="10" t="s">
+      <c r="M5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="O5" s="2" t="s">
@@ -1685,14 +1687,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1735,14 +1737,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1785,14 +1787,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1835,14 +1837,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1885,14 +1887,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1935,14 +1937,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1985,14 +1987,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2035,41 +2037,41 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="7" t="s">
         <v>44</v>
       </c>
       <c r="M13" s="2" t="s">
@@ -2081,11 +2083,12 @@
       <c r="O13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P13" s="10" t="s">
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS013-G4.xlsx
+++ b/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS013-G4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="67">
   <si>
     <t>Escenario ID</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Redes de Comunicaciones</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>Switch</t>
   </si>
   <si>
@@ -219,23 +216,14 @@
     <t>Oficina San Miguel</t>
   </si>
   <si>
-    <t>SC1 - Actualización Satisfactoria de Activo - Validación de nombre de campos en resultado de búsqueda</t>
-  </si>
-  <si>
-    <t>No se ubican los campos esperados</t>
-  </si>
-  <si>
-    <t>V12</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t xml:space="preserve">Se esperaba resultado de campos según especificación </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,11 +378,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -468,6 +461,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -502,6 +496,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -677,14 +672,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
@@ -695,7 +690,7 @@
     <col min="7" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1">
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -709,9 +704,9 @@
       <c r="E1" s="11"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1">
+    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -721,51 +716,51 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1">
+    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1">
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1">
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="F5" s="9"/>
     </row>
@@ -780,14 +775,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I65536"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83.85546875" bestFit="1" customWidth="1"/>
@@ -796,7 +791,7 @@
     <col min="15" max="15" width="29.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -831,71 +826,71 @@
         <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -934,16 +929,16 @@
         <v>5</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
@@ -981,15 +976,15 @@
         <v>4</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -1028,16 +1023,16 @@
         <v>4</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1075,15 +1070,15 @@
         <v>4</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -1122,15 +1117,15 @@
         <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -1169,157 +1164,157 @@
         <v>4</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1357,54 +1352,7 @@
         <v>4</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1414,14 +1362,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J65536"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -1434,10 +1382,10 @@
     <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1475,27 +1423,27 @@
         <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1504,7 +1452,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>5</v>
@@ -1534,18 +1482,18 @@
         <v>5</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -1575,7 +1523,7 @@
         <v>5</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>5</v>
@@ -1584,18 +1532,18 @@
         <v>5</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -1628,324 +1576,324 @@
         <v>5</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="P4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
@@ -1981,21 +1929,21 @@
         <v>5</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -2022,7 +1970,7 @@
         <v>5</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>5</v>
@@ -2031,60 +1979,10 @@
         <v>5</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS013-G4.xlsx
+++ b/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS013-G4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -384,6 +384,992 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>232500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6915151" y="1733550"/>
+          <a:ext cx="9524" cy="2499450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cmpd="sng">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>709179</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>72736</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="3 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="1352550"/>
+          <a:ext cx="1290204" cy="320386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Inicio Caso de uso</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>765463</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22514</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="4 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="4305300"/>
+          <a:ext cx="1489363" cy="251114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Fin Caso de uso</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>742949</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106507</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="4 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7648574" y="1971675"/>
+          <a:ext cx="2352675" cy="268432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="BCBCBC"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>SI_CUS013_MANTENIMIENTO_ACTIVO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>544497</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>179244</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="7 Flecha curvada hacia la izquierda"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="6972300" y="2667000"/>
+          <a:ext cx="477822" cy="979344"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedLeftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>311151</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>69849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="8 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6877050" y="3619500"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>15</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1781175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>301626</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>241299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="9 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="2457450"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>13</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>774237</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>188480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="11 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7724775" y="2619375"/>
+          <a:ext cx="1421937" cy="236105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Flujo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
+            <a:t> alternativo 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1746925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="12 Flecha curvada hacia la derecha"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="6362700" y="2800349"/>
+          <a:ext cx="470575" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>44451</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>222249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="13 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6610350" y="3771900"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>16</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>107949</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="14 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="2590800"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>14</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-PE" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1765975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="16 Flecha curvada hacia la derecha"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="6486525" y="1771647"/>
+          <a:ext cx="365800" cy="704851"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1587501</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="17 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6334125" y="2381250"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-PE" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1587501</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="18 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6334125" y="1714500"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-PE" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2047875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1088562</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>207530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="20 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="3171825"/>
+          <a:ext cx="1421937" cy="236105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Flujo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
+            <a:t> alternativo 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2143125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1183812</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>140855</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="21 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="2038350"/>
+          <a:ext cx="1421937" cy="236105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Flujo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
+            <a:t> alternativo 3</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -675,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -771,6 +1757,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -779,7 +1766,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,7 +2352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
